--- a/clientes/Quantum Engenharia Elétrica Ltda/Orcamentos/São José - Páscoa/168.xlsx
+++ b/clientes/Quantum Engenharia Elétrica Ltda/Orcamentos/São José - Páscoa/168.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\clientes\Quantum Engenharia Elétrica Ltda\orcamentos\São José - Páscoa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\clientes\Quantum Engenharia Elétrica Ltda\orcamentos\São José - Páscoa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B89652E-D43A-4A6D-B3D3-3BAC3F0246D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3672FDB1-AC2B-45FB-8F8F-3DE5C345C529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral_não" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
     <t>Quantum Engenharia Elétrica Ltda</t>
   </si>
   <si>
-    <t>14/02/2023</t>
+    <t>Locação</t>
   </si>
   <si>
     <t>PRAÇA ARNOLDO DE SOUZA</t>
@@ -1008,9 +1008,6 @@
     <t>2 para os PVCs e 1 para guirlanda</t>
   </si>
   <si>
-    <t>C:\github\myxlsm\orcamentosParaClientes\OrcamentoGerado_Quantum Engenharia Elétrica Ltda.xlsx</t>
-  </si>
-  <si>
     <t>Contato 1</t>
   </si>
   <si>
@@ -1023,13 +1020,16 @@
     <t>Teste</t>
   </si>
   <si>
-    <t>C:\github\myxlsm\clientes\Quantum Engenharia Elétrica Ltda\orcamentos\São José - Páscoa\164.xlsx</t>
-  </si>
-  <si>
-    <t>Venda</t>
-  </si>
-  <si>
-    <t>asdasd</t>
+    <t>15/02/2023</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\clientes\Quantum Engenharia Elétrica Ltda\orcamentosparaclientes\São José - Páscoa\167.xlsx</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\clientes\Quantum Engenharia Elétrica Ltda\orcamentos\São José - Páscoa\167.xlsx</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\clientes\Quantum Engenharia Elétrica Ltda\orcamentosparaclientes\São José - Páscoa\168.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1431,22 +1431,25 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>319</v>
+      </c>
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>320</v>
-      </c>
-      <c r="J2" t="s">
-        <v>324</v>
+      <c r="K2" t="s">
+        <v>325</v>
       </c>
       <c r="L2">
         <v>500</v>
@@ -1455,7 +1458,7 @@
         <v>300</v>
       </c>
       <c r="O2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -1578,9 +1581,9 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7C7A67-8CB9-4147-B05D-B3083ED33ED2}">
   <sheetPr codeName="Planilha11"/>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1645,7 +1648,7 @@
         <v>51</v>
       </c>
       <c r="H2" s="1">
-        <v>9762</v>
+        <v>16270</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1658,7 +1661,7 @@
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M7" si="0">C2*H2</f>
-        <v>9762</v>
+        <v>16270</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -1681,7 +1684,7 @@
         <v>51</v>
       </c>
       <c r="H3" s="1">
-        <v>4290</v>
+        <v>7150</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1694,7 +1697,7 @@
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
-        <v>4290</v>
+        <v>7150</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1717,7 +1720,7 @@
         <v>118</v>
       </c>
       <c r="H4" s="1">
-        <v>6624.71</v>
+        <v>11041.18</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1733,7 +1736,7 @@
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>6624.71</v>
+        <v>11041.18</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1756,7 +1759,7 @@
         <v>206</v>
       </c>
       <c r="H5" s="1">
-        <v>3781.25</v>
+        <v>6302.08</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1772,7 +1775,7 @@
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>3781.25</v>
+        <v>6302.08</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1798,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>3660.94</v>
+        <v>6101.57</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1808,7 +1811,7 @@
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>3660.94</v>
+        <v>6101.57</v>
       </c>
       <c r="N6" t="s">
         <v>213</v>
@@ -1834,7 +1837,7 @@
         <v>64</v>
       </c>
       <c r="H7" s="1">
-        <v>1853.29</v>
+        <v>3088.81</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1850,7 +1853,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>1853.29</v>
+        <v>3088.81</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1873,7 +1876,7 @@
         <v>81</v>
       </c>
       <c r="H8" s="1">
-        <v>1464.42</v>
+        <v>2440.6999999999998</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1883,7 +1886,7 @@
       </c>
       <c r="M8">
         <f t="shared" ref="M8:M12" si="1">C8*H8</f>
-        <v>1464.42</v>
+        <v>2440.6999999999998</v>
       </c>
       <c r="N8" t="s">
         <v>222</v>
@@ -1909,7 +1912,7 @@
         <v>206</v>
       </c>
       <c r="H9" s="1">
-        <v>3650.72</v>
+        <v>6084.53</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1925,7 +1928,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
-        <v>3650.72</v>
+        <v>6084.53</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1951,7 +1954,7 @@
         <v>39</v>
       </c>
       <c r="H10" s="1">
-        <v>4042.22</v>
+        <v>5774.6</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1961,7 +1964,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="1"/>
-        <v>4042.22</v>
+        <v>5774.6</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1978,7 +1981,7 @@
         <v>50</v>
       </c>
       <c r="H11" s="1">
-        <v>114.4</v>
+        <v>143</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1994,7 +1997,7 @@
       </c>
       <c r="M11">
         <f t="shared" si="1"/>
-        <v>114.4</v>
+        <v>143</v>
       </c>
       <c r="N11" t="s">
         <v>166</v>
@@ -2023,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>2434.38</v>
+        <v>3477.68</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2033,7 +2036,7 @@
       </c>
       <c r="M12">
         <f t="shared" si="1"/>
-        <v>2434.38</v>
+        <v>3477.68</v>
       </c>
       <c r="N12" t="s">
         <v>229</v>
@@ -2137,7 +2140,7 @@
         <v>58</v>
       </c>
       <c r="H15" s="1">
-        <v>540.42999999999995</v>
+        <v>900.72</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2153,7 +2156,7 @@
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
-        <v>540.42999999999995</v>
+        <v>900.72</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -2176,7 +2179,7 @@
         <v>62</v>
       </c>
       <c r="H16" s="1">
-        <v>447.9</v>
+        <v>746.5</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2192,7 +2195,7 @@
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
-        <v>447.9</v>
+        <v>746.5</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -2215,7 +2218,7 @@
         <v>66</v>
       </c>
       <c r="H17" s="1">
-        <v>851.87</v>
+        <v>1419.79</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2231,7 +2234,7 @@
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
-        <v>851.87</v>
+        <v>1419.79</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -2254,7 +2257,7 @@
         <v>61</v>
       </c>
       <c r="H18" s="1">
-        <v>598.26</v>
+        <v>997.09</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2270,7 +2273,7 @@
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
-        <v>1196.52</v>
+        <v>1994.18</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -2293,7 +2296,7 @@
         <v>61</v>
       </c>
       <c r="H19" s="1">
-        <v>237.94</v>
+        <v>396.57</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2309,7 +2312,7 @@
       </c>
       <c r="M19">
         <f t="shared" ref="M19:M24" si="3">C19*H19</f>
-        <v>475.88</v>
+        <v>793.14</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -2326,7 +2329,7 @@
         <v>52</v>
       </c>
       <c r="H20" s="1">
-        <v>2818.92</v>
+        <v>4698.2</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2342,7 +2345,7 @@
       </c>
       <c r="M20">
         <f t="shared" si="3"/>
-        <v>2818.92</v>
+        <v>4698.2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -2359,7 +2362,7 @@
         <v>81</v>
       </c>
       <c r="H21" s="1">
-        <v>951.54</v>
+        <v>1585.9</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2375,7 +2378,7 @@
       </c>
       <c r="M21">
         <f t="shared" si="3"/>
-        <v>951.54</v>
+        <v>1585.9</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -2392,7 +2395,7 @@
         <v>81</v>
       </c>
       <c r="H22" s="1">
-        <v>951.54</v>
+        <v>1585.9</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2408,7 +2411,7 @@
       </c>
       <c r="M22">
         <f t="shared" si="3"/>
-        <v>951.54</v>
+        <v>1585.9</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -2425,7 +2428,7 @@
         <v>81</v>
       </c>
       <c r="H23" s="1">
-        <v>951.54</v>
+        <v>1585.9</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2441,7 +2444,7 @@
       </c>
       <c r="M23">
         <f t="shared" si="3"/>
-        <v>951.54</v>
+        <v>1585.9</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -2458,7 +2461,7 @@
         <v>81</v>
       </c>
       <c r="H24" s="1">
-        <v>951.54</v>
+        <v>1585.9</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2474,7 +2477,7 @@
       </c>
       <c r="M24">
         <f t="shared" si="3"/>
-        <v>951.54</v>
+        <v>1585.9</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -2497,7 +2500,7 @@
         <v>57</v>
       </c>
       <c r="H25" s="1">
-        <v>407.93</v>
+        <v>679.89</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2512,8 +2515,8 @@
         <v>256</v>
       </c>
       <c r="M25">
-        <f t="shared" ref="M25:M30" si="4">C25*H25</f>
-        <v>407.93</v>
+        <f>C25*H25</f>
+        <v>679.89</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -2536,7 +2539,7 @@
         <v>57</v>
       </c>
       <c r="H26" s="1">
-        <v>407.93</v>
+        <v>679.89</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2551,8 +2554,8 @@
         <v>137</v>
       </c>
       <c r="M26">
-        <f t="shared" si="4"/>
-        <v>407.93</v>
+        <f>C26*H26</f>
+        <v>679.89</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -2575,7 +2578,7 @@
         <v>97</v>
       </c>
       <c r="H27" s="1">
-        <v>380.76</v>
+        <v>634.6</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2590,8 +2593,8 @@
         <v>141</v>
       </c>
       <c r="M27">
-        <f t="shared" si="4"/>
-        <v>380.76</v>
+        <f>C27*H27</f>
+        <v>634.6</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -2614,7 +2617,7 @@
         <v>97</v>
       </c>
       <c r="H28" s="1">
-        <v>380.76</v>
+        <v>634.6</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2629,8 +2632,8 @@
         <v>260</v>
       </c>
       <c r="M28">
-        <f t="shared" si="4"/>
-        <v>380.76</v>
+        <f>C28*H28</f>
+        <v>634.6</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -2647,7 +2650,7 @@
         <v>100</v>
       </c>
       <c r="H29" s="1">
-        <v>228.8</v>
+        <v>286</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2662,26 +2665,8 @@
         <v>112</v>
       </c>
       <c r="M29">
-        <f t="shared" si="4"/>
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>325</v>
-      </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>C29*H29</f>
+        <v>1430</v>
       </c>
     </row>
   </sheetData>
@@ -2958,7 +2943,7 @@
         <v>156</v>
       </c>
       <c r="H2" s="1">
-        <v>21170</v>
+        <v>29000</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2968,7 +2953,7 @@
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M7" si="0">C2*H2</f>
-        <v>21170</v>
+        <v>29000</v>
       </c>
       <c r="N2" t="s">
         <v>158</v>
@@ -3075,7 +3060,7 @@
         <v>39</v>
       </c>
       <c r="H5" s="1">
-        <v>4042.22</v>
+        <v>5774.6</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3085,7 +3070,7 @@
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>4042.22</v>
+        <v>5774.6</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -3102,7 +3087,7 @@
         <v>50</v>
       </c>
       <c r="H6" s="1">
-        <v>114.4</v>
+        <v>143</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3118,7 +3103,7 @@
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>114.4</v>
+        <v>143</v>
       </c>
       <c r="N6" t="s">
         <v>166</v>
@@ -3147,7 +3132,7 @@
         <v>68</v>
       </c>
       <c r="H7" s="1">
-        <v>3649.39</v>
+        <v>6082.31</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3160,7 +3145,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>3649.39</v>
+        <v>6082.31</v>
       </c>
       <c r="N7" t="s">
         <v>170</v>
@@ -3243,7 +3228,7 @@
         <v>864</v>
       </c>
       <c r="H10" s="1">
-        <v>4555.95</v>
+        <v>7593.25</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -3259,7 +3244,7 @@
       </c>
       <c r="M10">
         <f>C10*H10</f>
-        <v>4555.95</v>
+        <v>7593.25</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -3285,7 +3270,7 @@
         <v>55</v>
       </c>
       <c r="H11" s="1">
-        <v>3729.76</v>
+        <v>5328.23</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -3295,7 +3280,7 @@
       </c>
       <c r="M11">
         <f>C11*H11</f>
-        <v>3729.76</v>
+        <v>5328.23</v>
       </c>
     </row>
   </sheetData>
@@ -3388,7 +3373,7 @@
         <v>100</v>
       </c>
       <c r="H3" s="1">
-        <v>343.2</v>
+        <v>429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3404,7 +3389,7 @@
       </c>
       <c r="M3">
         <f>C3*H3</f>
-        <v>5148</v>
+        <v>6435</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -3521,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>35139.75</v>
+        <v>63890.45</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -3531,7 +3516,7 @@
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M7" si="0">C2*H2</f>
-        <v>35139.75</v>
+        <v>63890.45</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -3554,7 +3539,7 @@
         <v>118</v>
       </c>
       <c r="H3" s="1">
-        <v>6624.71</v>
+        <v>11041.18</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3570,7 +3555,7 @@
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
-        <v>6624.71</v>
+        <v>11041.18</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -3593,7 +3578,7 @@
         <v>124</v>
       </c>
       <c r="H4" s="1">
-        <v>2711.19</v>
+        <v>4518.6499999999996</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3609,7 +3594,7 @@
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>5422.38</v>
+        <v>9037.2999999999993</v>
       </c>
       <c r="N4" t="s">
         <v>128</v>
@@ -3638,7 +3623,7 @@
         <v>39</v>
       </c>
       <c r="H5" s="1">
-        <v>4042.22</v>
+        <v>5774.6</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3648,7 +3633,7 @@
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>4042.22</v>
+        <v>5774.6</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -3665,7 +3650,7 @@
         <v>50</v>
       </c>
       <c r="H6" s="1">
-        <v>114.4</v>
+        <v>143</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3681,7 +3666,7 @@
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>114.4</v>
+        <v>143</v>
       </c>
       <c r="N6" t="s">
         <v>129</v>
@@ -3701,7 +3686,7 @@
         <v>81</v>
       </c>
       <c r="H7" s="1">
-        <v>951.54</v>
+        <v>1585.9</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3717,7 +3702,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>951.54</v>
+        <v>1585.9</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -3740,7 +3725,7 @@
         <v>57</v>
       </c>
       <c r="H8" s="1">
-        <v>407.93</v>
+        <v>679.89</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -3756,7 +3741,7 @@
       </c>
       <c r="M8">
         <f>C8*H8</f>
-        <v>407.93</v>
+        <v>679.89</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -3779,7 +3764,7 @@
         <v>97</v>
       </c>
       <c r="H9" s="1">
-        <v>380.76</v>
+        <v>634.6</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -3795,7 +3780,7 @@
       </c>
       <c r="M9">
         <f>C9*H9</f>
-        <v>380.76</v>
+        <v>634.6</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -3818,7 +3803,7 @@
         <v>61</v>
       </c>
       <c r="H10" s="1">
-        <v>598.26</v>
+        <v>997.09</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -3834,7 +3819,7 @@
       </c>
       <c r="M10">
         <f>C10*H10</f>
-        <v>598.26</v>
+        <v>997.09</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -3851,7 +3836,7 @@
         <v>100</v>
       </c>
       <c r="H11" s="1">
-        <v>228.8</v>
+        <v>286</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -3867,7 +3852,7 @@
       </c>
       <c r="M11">
         <f>C11*H11</f>
-        <v>457.6</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -3945,7 +3930,7 @@
         <v>33</v>
       </c>
       <c r="H2" s="1">
-        <v>37394.5</v>
+        <v>67990</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -3961,7 +3946,7 @@
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M7" si="0">C2*H2</f>
-        <v>37394.5</v>
+        <v>67990</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -3984,7 +3969,7 @@
         <v>40</v>
       </c>
       <c r="H3" s="1">
-        <v>6235.69</v>
+        <v>10392.82</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3994,7 +3979,7 @@
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
-        <v>6235.69</v>
+        <v>10392.82</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -4017,7 +4002,7 @@
         <v>45</v>
       </c>
       <c r="H4" s="1">
-        <v>5193.95</v>
+        <v>8656.58</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4033,7 +4018,7 @@
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>5193.95</v>
+        <v>8656.58</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -4056,7 +4041,7 @@
         <v>52</v>
       </c>
       <c r="H5" s="1">
-        <v>6627.04</v>
+        <v>11045.07</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4072,7 +4057,7 @@
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>6627.04</v>
+        <v>11045.07</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -4095,7 +4080,7 @@
         <v>58</v>
       </c>
       <c r="H6" s="1">
-        <v>540.46</v>
+        <v>900.77</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4105,7 +4090,7 @@
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>540.46</v>
+        <v>900.77</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -4128,7 +4113,7 @@
         <v>62</v>
       </c>
       <c r="H7" s="1">
-        <v>447.88</v>
+        <v>746.47</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4138,7 +4123,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>447.88</v>
+        <v>746.47</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -4161,7 +4146,7 @@
         <v>66</v>
       </c>
       <c r="H8" s="1">
-        <v>811.3</v>
+        <v>1352.17</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -4171,7 +4156,7 @@
       </c>
       <c r="M8">
         <f t="shared" ref="M8:M13" si="1">C8*H8</f>
-        <v>811.3</v>
+        <v>1352.17</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -4197,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>3843.99</v>
+        <v>6406.65</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -4207,7 +4192,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
-        <v>3843.99</v>
+        <v>6406.65</v>
       </c>
       <c r="N9" t="s">
         <v>70</v>
@@ -4233,7 +4218,7 @@
         <v>61</v>
       </c>
       <c r="H10" s="1">
-        <v>598.26</v>
+        <v>997.09</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -4249,7 +4234,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="1"/>
-        <v>598.26</v>
+        <v>997.09</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -4272,7 +4257,7 @@
         <v>61</v>
       </c>
       <c r="H11" s="1">
-        <v>237.94</v>
+        <v>396.57</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -4288,7 +4273,7 @@
       </c>
       <c r="M11">
         <f t="shared" si="1"/>
-        <v>237.94</v>
+        <v>396.57</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -4305,7 +4290,7 @@
         <v>81</v>
       </c>
       <c r="H12" s="1">
-        <v>951.54</v>
+        <v>1585.9</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -4321,7 +4306,7 @@
       </c>
       <c r="M12">
         <f t="shared" si="1"/>
-        <v>951.54</v>
+        <v>1585.9</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -4338,7 +4323,7 @@
         <v>81</v>
       </c>
       <c r="H13" s="1">
-        <v>951.54</v>
+        <v>1585.9</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -4354,7 +4339,7 @@
       </c>
       <c r="M13">
         <f t="shared" si="1"/>
-        <v>951.54</v>
+        <v>1585.9</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -4377,7 +4362,7 @@
         <v>57</v>
       </c>
       <c r="H14" s="1">
-        <v>407.93</v>
+        <v>679.89</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -4387,7 +4372,7 @@
       </c>
       <c r="M14">
         <f t="shared" ref="M14:M19" si="2">C14*H14</f>
-        <v>407.93</v>
+        <v>679.89</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -4410,7 +4395,7 @@
         <v>57</v>
       </c>
       <c r="H15" s="1">
-        <v>407.93</v>
+        <v>679.89</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -4426,7 +4411,7 @@
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
-        <v>407.93</v>
+        <v>679.89</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -4449,7 +4434,7 @@
         <v>97</v>
       </c>
       <c r="H16" s="1">
-        <v>380.76</v>
+        <v>634.6</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -4465,7 +4450,7 @@
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
-        <v>380.76</v>
+        <v>634.6</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -4491,7 +4476,7 @@
         <v>39</v>
       </c>
       <c r="H17" s="1">
-        <v>4042.22</v>
+        <v>5774.6</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -4501,7 +4486,7 @@
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
-        <v>4042.22</v>
+        <v>5774.6</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -4518,7 +4503,7 @@
         <v>50</v>
       </c>
       <c r="H18" s="1">
-        <v>114.4</v>
+        <v>143</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -4534,7 +4519,7 @@
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
-        <v>114.4</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -4551,7 +4536,7 @@
         <v>100</v>
       </c>
       <c r="H19" s="1">
-        <v>228.8</v>
+        <v>286</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -4567,7 +4552,7 @@
       </c>
       <c r="M19">
         <f t="shared" si="2"/>
-        <v>915.2</v>
+        <v>1144</v>
       </c>
     </row>
   </sheetData>
@@ -4711,7 +4696,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -4719,7 +4704,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -4732,7 +4717,7 @@
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -4930,7 +4915,7 @@
         <v>39</v>
       </c>
       <c r="H4" s="1">
-        <v>4042.22</v>
+        <v>5774.6</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4940,7 +4925,7 @@
       </c>
       <c r="M4">
         <f>C4*H4</f>
-        <v>4042.22</v>
+        <v>5774.6</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -4993,7 +4978,7 @@
         <v>50</v>
       </c>
       <c r="H6" s="1">
-        <v>114.4</v>
+        <v>143</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -5009,7 +4994,7 @@
       </c>
       <c r="M6">
         <f>C6*H6</f>
-        <v>343.20000000000005</v>
+        <v>429</v>
       </c>
       <c r="N6" t="s">
         <v>317</v>
@@ -5090,7 +5075,7 @@
         <v>52</v>
       </c>
       <c r="H2" s="1">
-        <v>7682.15</v>
+        <v>12803.58</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -5106,7 +5091,7 @@
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M7" si="0">C2*H2</f>
-        <v>7682.15</v>
+        <v>12803.58</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -5129,7 +5114,7 @@
         <v>302</v>
       </c>
       <c r="H3" s="1">
-        <v>4259.8500000000004</v>
+        <v>7099.76</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -5145,7 +5130,7 @@
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
-        <v>4259.8500000000004</v>
+        <v>7099.76</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -5168,7 +5153,7 @@
         <v>51</v>
       </c>
       <c r="H4" s="1">
-        <v>5262.66</v>
+        <v>8771.1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -5178,7 +5163,7 @@
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>5262.66</v>
+        <v>8771.1</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -5201,7 +5186,7 @@
         <v>215</v>
       </c>
       <c r="H5" s="1">
-        <v>2985.22</v>
+        <v>4975.3599999999997</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -5211,7 +5196,7 @@
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>2985.22</v>
+        <v>4975.3599999999997</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -5234,7 +5219,7 @@
         <v>44</v>
       </c>
       <c r="H6" s="1">
-        <v>1571.7</v>
+        <v>2619.5</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -5244,7 +5229,7 @@
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>1571.7</v>
+        <v>2619.5</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -5267,7 +5252,7 @@
         <v>124</v>
       </c>
       <c r="H7" s="1">
-        <v>2711.19</v>
+        <v>4518.6499999999996</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -5283,7 +5268,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>2711.19</v>
+        <v>4518.6499999999996</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -5309,7 +5294,7 @@
         <v>39</v>
       </c>
       <c r="H8" s="1">
-        <v>4042.22</v>
+        <v>5774.6</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -5319,7 +5304,7 @@
       </c>
       <c r="M8">
         <f>C8*H8</f>
-        <v>4042.22</v>
+        <v>5774.6</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -5336,7 +5321,7 @@
         <v>50</v>
       </c>
       <c r="H9" s="1">
-        <v>114.4</v>
+        <v>143</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -5352,7 +5337,7 @@
       </c>
       <c r="M9">
         <f>C9*H9</f>
-        <v>114.4</v>
+        <v>143</v>
       </c>
       <c r="N9" t="s">
         <v>166</v>
@@ -5402,7 +5387,7 @@
         <v>100</v>
       </c>
       <c r="H11" s="1">
-        <v>228.8</v>
+        <v>286</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -5418,7 +5403,7 @@
       </c>
       <c r="M11">
         <f>C11*H11</f>
-        <v>457.6</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -5496,7 +5481,7 @@
         <v>68</v>
       </c>
       <c r="H2" s="1">
-        <v>556.41999999999996</v>
+        <v>927.37</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -5512,7 +5497,7 @@
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M7" si="0">C2*H2</f>
-        <v>3894.9399999999996</v>
+        <v>6491.59</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -5712,7 +5697,7 @@
         <v>50</v>
       </c>
       <c r="H8" s="1">
-        <v>114.4</v>
+        <v>143</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -5728,7 +5713,7 @@
       </c>
       <c r="M8">
         <f>C8*H8</f>
-        <v>572</v>
+        <v>715</v>
       </c>
       <c r="N8" t="s">
         <v>294</v>
@@ -5812,7 +5797,7 @@
         <v>39</v>
       </c>
       <c r="H2" s="1">
-        <v>2741.31</v>
+        <v>3916.15</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -5822,7 +5807,7 @@
       </c>
       <c r="M2">
         <f>C2*H2</f>
-        <v>2741.31</v>
+        <v>3916.15</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -5839,7 +5824,7 @@
         <v>50</v>
       </c>
       <c r="H3" s="1">
-        <v>114.4</v>
+        <v>143</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -5855,7 +5840,7 @@
       </c>
       <c r="M3">
         <f>C3*H3</f>
-        <v>114.4</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -5878,7 +5863,7 @@
         <v>68</v>
       </c>
       <c r="H4" s="1">
-        <v>556.41999999999996</v>
+        <v>927.37</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -5894,7 +5879,7 @@
       </c>
       <c r="M4">
         <f>C4*H4</f>
-        <v>1112.8399999999999</v>
+        <v>1854.74</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -5911,7 +5896,7 @@
         <v>100</v>
       </c>
       <c r="H5" s="1">
-        <v>520</v>
+        <v>650</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -5927,7 +5912,7 @@
       </c>
       <c r="M5">
         <f>C5*H5</f>
-        <v>2080</v>
+        <v>2600</v>
       </c>
     </row>
   </sheetData>
